--- a/Simplex.xlsb.xlsx
+++ b/Simplex.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15-4JO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D9CDC7E-5E77-464F-9AD1-ABF2F03FCB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF01218-2F40-4FB0-ADE4-517646EB3CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte_1" sheetId="6" r:id="rId1"/>
@@ -782,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1407,7 +1407,7 @@
     <row r="21" spans="1:15" ht="13.8">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C21" s="61">
         <f>C13/$F13</f>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C29" s="68">
         <f>C21-$D21*C$27</f>
@@ -2028,6 +2028,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
